--- a/Mifos Automation Excels/Client/4044-ACTIVECLIENT-PERSON-TRANSFER-SAMEBRANCH.xlsx
+++ b/Mifos Automation Excels/Client/4044-ACTIVECLIENT-PERSON-TRANSFER-SAMEBRANCH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>office</t>
   </si>
@@ -111,7 +111,10 @@
     <t>clickonsubmit</t>
   </si>
   <si>
-    <t>Select Valid Branch Office</t>
+    <t>Source and destination office cannot be same</t>
+  </si>
+  <si>
+    <t>duplicateExtID</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -760,7 +763,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
